--- a/Data_science_outputs_highlands/Graphs/Third/5/Montlhy_consumption_2.xlsx
+++ b/Data_science_outputs_highlands/Graphs/Third/5/Montlhy_consumption_2.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19429.67980223337</v>
+        <v>10473.9367165667</v>
       </c>
       <c r="C2" t="n">
-        <v>1922.248459433342</v>
+        <v>7206.138873800031</v>
       </c>
       <c r="D2" t="n">
-        <v>8438.9296311</v>
+        <v>773.3713302833334</v>
       </c>
       <c r="E2" t="n">
-        <v>2441.96550815</v>
+        <v>2252.856225866667</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18139.79753185004</v>
+        <v>9817.62388860003</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7918.515057966666</v>
+        <v>729.6729779000001</v>
       </c>
       <c r="E3" t="n">
-        <v>2282.25878685</v>
+        <v>2114.13305315</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19399.34592550003</v>
+        <v>10502.54762538337</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8427.705657033333</v>
+        <v>791.0243829833333</v>
       </c>
       <c r="E4" t="n">
-        <v>2462.410542616667</v>
+        <v>2260.2305032</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18745.29463738337</v>
+        <v>10145.48099868336</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8169.978037033334</v>
+        <v>761.0796861166667</v>
       </c>
       <c r="E5" t="n">
-        <v>2371.712923316667</v>
+        <v>2163.33902055</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19343.95862515004</v>
+        <v>10466.14519863336</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>8452.328369466666</v>
+        <v>782.6066875</v>
       </c>
       <c r="E6" t="n">
-        <v>2463.04862965</v>
+        <v>2227.684701333333</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18777.08528743337</v>
+        <v>10163.22479713336</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8187.358307566667</v>
+        <v>750.4456349166667</v>
       </c>
       <c r="E7" t="n">
-        <v>2353.21142455</v>
+        <v>2181.816600116666</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19380.82960638337</v>
+        <v>10468.00057490003</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8467.481734283332</v>
+        <v>766.3689622000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2459.87178375</v>
+        <v>2226.964896233334</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19388.11398948337</v>
+        <v>10500.11341703336</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>8447.138045166666</v>
+        <v>764.5089545833333</v>
       </c>
       <c r="E9" t="n">
-        <v>2439.961017983333</v>
+        <v>2251.286813933333</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18786.0560965167</v>
+        <v>10136.67505350003</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>8170.748653616667</v>
+        <v>755.8413485</v>
       </c>
       <c r="E10" t="n">
-        <v>2374.37993895</v>
+        <v>2179.443357816667</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19358.66650900004</v>
+        <v>10463.41364598336</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8449.873350900001</v>
+        <v>765.1832899333333</v>
       </c>
       <c r="E11" t="n">
-        <v>2457.0246808</v>
+        <v>2224.552501683333</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18737.14216858337</v>
+        <v>10139.18137590003</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>8180.9323442</v>
+        <v>759.6203631166667</v>
       </c>
       <c r="E12" t="n">
-        <v>2379.2436845</v>
+        <v>2164.55019405</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18792.1359838667</v>
+        <v>10135.83913405003</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8192.455372466666</v>
+        <v>768.9150502833332</v>
       </c>
       <c r="E13" t="n">
-        <v>2382.112058866667</v>
+        <v>2157.39154595</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
